--- a/42_Tables_3/homework/2.xlsx
+++ b/42_Tables_3/homework/2.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grigo\OneDrive\Рабочий стол\Обработка электронных таблиц III\Задание 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub repos\ICT_EGE\42_Tables_3\homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B058F1-37E7-4A27-BCDD-4C7ED3ACD09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8820"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,15 +23,45 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Действия</t>
+  </si>
+  <si>
+    <t>Влево</t>
+  </si>
+  <si>
+    <t>Вниз</t>
+  </si>
+  <si>
+    <t>из правой верхней клетки в левую нижнюю</t>
+  </si>
+  <si>
+    <t>МИН</t>
+  </si>
+  <si>
+    <t>МАКС</t>
+  </si>
+  <si>
+    <t>сначала минимальную сумму, затем максимальную</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -39,13 +70,36 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -140,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -152,6 +206,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -431,14 +492,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Лист1"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>97</v>
       </c>
@@ -478,14 +542,14 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>5</v>
       </c>
       <c r="B2" s="7">
         <v>60</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="12">
         <v>33</v>
       </c>
       <c r="D2" s="6">
@@ -517,14 +581,14 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>24</v>
       </c>
       <c r="B3" s="7">
         <v>41</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="12">
         <v>30</v>
       </c>
       <c r="D3" s="6">
@@ -556,14 +620,14 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>35</v>
       </c>
       <c r="B4" s="7">
         <v>39</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="12">
         <v>84</v>
       </c>
       <c r="D4" s="6">
@@ -595,14 +659,14 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>58</v>
       </c>
       <c r="B5" s="7">
         <v>66</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="12">
         <v>68</v>
       </c>
       <c r="D5" s="6">
@@ -634,14 +698,14 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>74</v>
       </c>
       <c r="B6" s="7">
         <v>54</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="12">
         <v>71</v>
       </c>
       <c r="D6" s="6">
@@ -673,14 +737,14 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>74</v>
       </c>
       <c r="B7" s="7">
         <v>4</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="12">
         <v>97</v>
       </c>
       <c r="D7" s="6">
@@ -703,6 +767,9 @@
       </c>
       <c r="J7" s="7">
         <v>30</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>3</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -712,7 +779,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>32</v>
       </c>
@@ -725,13 +792,13 @@
       <c r="D8" s="6">
         <v>27</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="12">
         <v>9</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="12">
         <v>33</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="12">
         <v>95</v>
       </c>
       <c r="H8" s="6">
@@ -744,7 +811,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>81</v>
       </c>
@@ -775,8 +842,11 @@
       <c r="J9" s="7">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M9" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>79</v>
       </c>
@@ -806,6 +876,451 @@
       </c>
       <c r="J10" s="10">
         <v>58</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <f t="shared" ref="A13:H13" si="0">B13+A1</f>
+        <v>670</v>
+      </c>
+      <c r="B13" s="3">
+        <f t="shared" si="0"/>
+        <v>573</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>496</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>307</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>247</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="0"/>
+        <v>167</v>
+      </c>
+      <c r="I13" s="3">
+        <f>J13+I1</f>
+        <v>148</v>
+      </c>
+      <c r="J13" s="4">
+        <f>J1</f>
+        <v>68</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <f>MAX(A13,B14)+A2</f>
+        <v>675</v>
+      </c>
+      <c r="B14" s="16">
+        <f>B13+B2</f>
+        <v>633</v>
+      </c>
+      <c r="C14" s="6">
+        <f>MAX(C13,D14)+C2</f>
+        <v>545</v>
+      </c>
+      <c r="D14" s="6">
+        <f>MAX(D13,E14)+D2</f>
+        <v>512</v>
+      </c>
+      <c r="E14" s="6">
+        <f>MAX(E13,F14)+E2</f>
+        <v>407</v>
+      </c>
+      <c r="F14" s="6">
+        <f>MAX(F13,G14)+F2</f>
+        <v>373</v>
+      </c>
+      <c r="G14" s="6">
+        <f>MAX(G13,H14)+G2</f>
+        <v>279</v>
+      </c>
+      <c r="H14" s="6">
+        <f>MAX(H13,I14)+H2</f>
+        <v>182</v>
+      </c>
+      <c r="I14" s="6">
+        <f>MAX(I13,J14)+I2</f>
+        <v>156</v>
+      </c>
+      <c r="J14" s="7">
+        <f>J13+J2</f>
+        <v>91</v>
+      </c>
+      <c r="L14" s="15"/>
+      <c r="M14" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <f>MAX(A14,B15)+A3</f>
+        <v>699</v>
+      </c>
+      <c r="B15" s="16">
+        <f t="shared" ref="B15:B19" si="1">B14+B3</f>
+        <v>674</v>
+      </c>
+      <c r="C15" s="6">
+        <f>MAX(C14,D15)+C3</f>
+        <v>595</v>
+      </c>
+      <c r="D15" s="6">
+        <f>MAX(D14,E15)+D3</f>
+        <v>565</v>
+      </c>
+      <c r="E15" s="6">
+        <f>MAX(E14,F15)+E3</f>
+        <v>428</v>
+      </c>
+      <c r="F15" s="6">
+        <f>MAX(F14,G15)+F3</f>
+        <v>405</v>
+      </c>
+      <c r="G15" s="6">
+        <f>MAX(G14,H15)+G3</f>
+        <v>307</v>
+      </c>
+      <c r="H15" s="6">
+        <f>MAX(H14,I15)+H3</f>
+        <v>255</v>
+      </c>
+      <c r="I15" s="6">
+        <f>MAX(I14,J15)+I3</f>
+        <v>202</v>
+      </c>
+      <c r="J15" s="7">
+        <f t="shared" ref="J15:J22" si="2">J14+J3</f>
+        <v>115</v>
+      </c>
+      <c r="M15" s="13">
+        <v>509</v>
+      </c>
+      <c r="O15" s="13">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <f>MAX(A15,B16)+A4</f>
+        <v>748</v>
+      </c>
+      <c r="B16" s="16">
+        <f t="shared" si="1"/>
+        <v>713</v>
+      </c>
+      <c r="C16" s="6">
+        <f>MAX(C15,D16)+C4</f>
+        <v>697</v>
+      </c>
+      <c r="D16" s="6">
+        <f>MAX(D15,E16)+D4</f>
+        <v>613</v>
+      </c>
+      <c r="E16" s="6">
+        <f>MAX(E15,F16)+E4</f>
+        <v>527</v>
+      </c>
+      <c r="F16" s="6">
+        <f>MAX(F15,G16)+F4</f>
+        <v>439</v>
+      </c>
+      <c r="G16" s="6">
+        <f>MAX(G15,H16)+G4</f>
+        <v>321</v>
+      </c>
+      <c r="H16" s="6">
+        <f>MAX(H15,I16)+H4</f>
+        <v>294</v>
+      </c>
+      <c r="I16" s="6">
+        <f>MAX(I15,J16)+I4</f>
+        <v>212</v>
+      </c>
+      <c r="J16" s="7">
+        <f t="shared" si="2"/>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <f>MAX(A16,B17)+A5</f>
+        <v>837</v>
+      </c>
+      <c r="B17" s="16">
+        <f t="shared" si="1"/>
+        <v>779</v>
+      </c>
+      <c r="C17" s="6">
+        <f>MAX(C16,D17)+C5</f>
+        <v>765</v>
+      </c>
+      <c r="D17" s="6">
+        <f>MAX(D16,E17)+D5</f>
+        <v>635</v>
+      </c>
+      <c r="E17" s="6">
+        <f>MAX(E16,F17)+E5</f>
+        <v>530</v>
+      </c>
+      <c r="F17" s="6">
+        <f>MAX(F16,G17)+F5</f>
+        <v>461</v>
+      </c>
+      <c r="G17" s="6">
+        <f>MAX(G16,H17)+G5</f>
+        <v>433</v>
+      </c>
+      <c r="H17" s="6">
+        <f>MAX(H16,I17)+H5</f>
+        <v>388</v>
+      </c>
+      <c r="I17" s="6">
+        <f>MAX(I16,J17)+I5</f>
+        <v>219</v>
+      </c>
+      <c r="J17" s="7">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <f>MAX(A17,B18)+A6</f>
+        <v>911</v>
+      </c>
+      <c r="B18" s="16">
+        <f t="shared" si="1"/>
+        <v>833</v>
+      </c>
+      <c r="C18" s="6">
+        <f>MAX(C17,D18)+C6</f>
+        <v>836</v>
+      </c>
+      <c r="D18" s="6">
+        <f>MAX(D17,E18)+D6</f>
+        <v>727</v>
+      </c>
+      <c r="E18" s="6">
+        <f>MAX(E17,F18)+E6</f>
+        <v>582</v>
+      </c>
+      <c r="F18" s="6">
+        <f>MAX(F17,G18)+F6</f>
+        <v>562</v>
+      </c>
+      <c r="G18" s="6">
+        <f>MAX(G17,H18)+G6</f>
+        <v>481</v>
+      </c>
+      <c r="H18" s="6">
+        <f>MAX(H17,I18)+H6</f>
+        <v>419</v>
+      </c>
+      <c r="I18" s="6">
+        <f>MAX(I17,J18)+I6</f>
+        <v>348</v>
+      </c>
+      <c r="J18" s="7">
+        <f t="shared" si="2"/>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <f>MAX(A18,B19)+A7</f>
+        <v>985</v>
+      </c>
+      <c r="B19" s="16">
+        <f t="shared" si="1"/>
+        <v>837</v>
+      </c>
+      <c r="C19" s="6">
+        <f>MAX(C18,D19)+C7</f>
+        <v>933</v>
+      </c>
+      <c r="D19" s="6">
+        <f>MAX(D18,E19)+D7</f>
+        <v>808</v>
+      </c>
+      <c r="E19" s="6">
+        <f>MAX(E18,F19)+E7</f>
+        <v>646</v>
+      </c>
+      <c r="F19" s="6">
+        <f>MAX(F18,G19)+F7</f>
+        <v>589</v>
+      </c>
+      <c r="G19" s="6">
+        <f>MAX(G18,H19)+G7</f>
+        <v>513</v>
+      </c>
+      <c r="H19" s="6">
+        <f>MAX(H18,I19)+H7</f>
+        <v>427</v>
+      </c>
+      <c r="I19" s="6">
+        <f>MAX(I18,J19)+I7</f>
+        <v>385</v>
+      </c>
+      <c r="J19" s="7">
+        <f t="shared" si="2"/>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <f>MAX(A19,B20)+A8</f>
+        <v>1017</v>
+      </c>
+      <c r="B20" s="6">
+        <f>MAX(B19,C20)+B8</f>
+        <v>963</v>
+      </c>
+      <c r="C20" s="6">
+        <f>MAX(C19,D20)+C8</f>
+        <v>950</v>
+      </c>
+      <c r="D20" s="6">
+        <f>MAX(D19,E20)+D8</f>
+        <v>835</v>
+      </c>
+      <c r="E20" s="12">
+        <f t="shared" ref="E20:F20" si="3">F20+E8</f>
+        <v>586</v>
+      </c>
+      <c r="F20" s="12">
+        <f t="shared" si="3"/>
+        <v>577</v>
+      </c>
+      <c r="G20" s="12">
+        <f>H20+G8</f>
+        <v>544</v>
+      </c>
+      <c r="H20" s="6">
+        <f>MAX(H19,I20)+H8</f>
+        <v>449</v>
+      </c>
+      <c r="I20" s="6">
+        <f>MAX(I19,J20)+I8</f>
+        <v>393</v>
+      </c>
+      <c r="J20" s="7">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <f>MAX(A20,B21)+A9</f>
+        <v>1098</v>
+      </c>
+      <c r="B21" s="6">
+        <f>MAX(B20,C21)+B9</f>
+        <v>1002</v>
+      </c>
+      <c r="C21" s="6">
+        <f>MAX(C20,D21)+C9</f>
+        <v>951</v>
+      </c>
+      <c r="D21" s="6">
+        <f>MAX(D20,E21)+D9</f>
+        <v>866</v>
+      </c>
+      <c r="E21" s="6">
+        <f>MAX(E20,F21)+E9</f>
+        <v>598</v>
+      </c>
+      <c r="F21" s="6">
+        <f>MAX(F20,G21)+F9</f>
+        <v>596</v>
+      </c>
+      <c r="G21" s="6">
+        <f>MAX(G20,H21)+G9</f>
+        <v>549</v>
+      </c>
+      <c r="H21" s="6">
+        <f>MAX(H20,I21)+H9</f>
+        <v>487</v>
+      </c>
+      <c r="I21" s="6">
+        <f>MAX(I20,J21)+I9</f>
+        <v>445</v>
+      </c>
+      <c r="J21" s="7">
+        <f t="shared" si="2"/>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
+        <f>MAX(A21,B22)+A10</f>
+        <v>1177</v>
+      </c>
+      <c r="B22" s="6">
+        <f>MAX(B21,C22)+B10</f>
+        <v>1017</v>
+      </c>
+      <c r="C22" s="6">
+        <f>MAX(C21,D22)+C10</f>
+        <v>993</v>
+      </c>
+      <c r="D22" s="6">
+        <f>MAX(D21,E22)+D10</f>
+        <v>929</v>
+      </c>
+      <c r="E22" s="6">
+        <f>MAX(E21,F22)+E10</f>
+        <v>699</v>
+      </c>
+      <c r="F22" s="6">
+        <f>MAX(F21,G22)+F10</f>
+        <v>669</v>
+      </c>
+      <c r="G22" s="6">
+        <f>MAX(G21,H22)+G10</f>
+        <v>572</v>
+      </c>
+      <c r="H22" s="6">
+        <f>MAX(H21,I22)+H10</f>
+        <v>567</v>
+      </c>
+      <c r="I22" s="6">
+        <f>MAX(I21,J22)+I10</f>
+        <v>497</v>
+      </c>
+      <c r="J22" s="7">
+        <f t="shared" si="2"/>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
